--- a/mow/Ćwiczenie_2/Ćwiczenie_2.xlsx
+++ b/mow/Ćwiczenie_2/Ćwiczenie_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\studia\mow\Ćwiczenie_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A642A01-A6B1-47AD-AE22-8E2E9F941214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4E2446-731B-4E61-9E61-421F66627EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1A" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,6 @@
     <definedName name="_56F9DC9755BA473782653E2940F9FormId">"8qzyXLSsHU-Adm7aPxge7eb3GWeqURRHpHkAec0NiGRUQTNUSjUzWjAzWFEyTDgwU0VWRTVLNjNYNS4u"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9ResponseSheet">"Form1"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{86eea238-9f4f-4939-9d7e-8f26e1edbfe8}"</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'2B_adapth'!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'2B_adapth'!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'2B_adapth'!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'2B_adapth'!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'2B_adapth'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'2B_adapth'!$C$2:$C$13</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
   <si>
     <t>NDOF</t>
   </si>
@@ -153,9 +147,580 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Zadanie 1 A</a:t>
+              <a:rPr lang="pl-PL"/>
+              <a:t>A</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - p = 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>równomierne</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1A'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9079999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1A'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-4.5789999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.33760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.71779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.98850000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A56-4E65-B084-8FC549BB0CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>adaptacyjne</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1A'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6020000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1A'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-4.5789999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.33760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.7177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.98509999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A56-4E65-B084-8FC549BB0CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1093107087"/>
+        <c:axId val="1093100431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1093107087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>log10(NDOF)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093100431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1093100431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>log10(H1)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093107087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zadanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> 2 B adaptp</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -199,7 +764,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1A'!$A$1</c:f>
+              <c:f>'2B_adaptp'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -222,45 +787,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'1A'!$A$2:$A$13</c:f>
+              <c:f>'2B_adaptp'!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0409999999999999</c:v>
+                  <c:v>1.9079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3220000000000001</c:v>
+                  <c:v>2.1760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.613</c:v>
+                  <c:v>2.3380000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9079999999999999</c:v>
+                  <c:v>2.468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3220000000000001</c:v>
+                  <c:v>2.4609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.613</c:v>
+                  <c:v>2.5529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9079999999999999</c:v>
+                  <c:v>2.6360000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2069999999999999</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4910000000000001</c:v>
+                  <c:v>2.7959999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>2.8410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0830000000000002</c:v>
+                  <c:v>2.8940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3820000000000001</c:v>
+                  <c:v>2.9540000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,7 +833,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4E86-4D9C-BC58-CB9AD9135CF8}"/>
+              <c16:uniqueId val="{00000000-6E1B-46AF-8504-C2BD5065D610}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -277,7 +842,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1A'!$B$1</c:f>
+              <c:f>'2B_adaptp'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -300,45 +865,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'1A'!$B$2:$B$13</c:f>
+              <c:f>'2B_adaptp'!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-4.5789999999999997E-2</c:v>
+                  <c:v>0.80859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.33760000000000001</c:v>
+                  <c:v>0.59899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.71779999999999999</c:v>
+                  <c:v>0.41439999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.98850000000000005</c:v>
+                  <c:v>0.2596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.4536</c:v>
+                  <c:v>0.59909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1399999999999999</c:v>
+                  <c:v>0.41420000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.35</c:v>
+                  <c:v>0.2586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0049999999999999</c:v>
+                  <c:v>7.5029999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.097</c:v>
+                  <c:v>0.40789999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2470000000000001</c:v>
+                  <c:v>0.251</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.3530000000000002</c:v>
+                  <c:v>7.4160000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.0009999999999999</c:v>
+                  <c:v>-8.5019999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,7 +911,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4E86-4D9C-BC58-CB9AD9135CF8}"/>
+              <c16:uniqueId val="{00000001-6E1B-46AF-8504-C2BD5065D610}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -359,11 +924,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2052391031"/>
-        <c:axId val="14546840"/>
+        <c:axId val="1595946000"/>
+        <c:axId val="1595933520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2052391031"/>
+        <c:axId val="1595946000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +970,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14546840"/>
+        <c:crossAx val="1595933520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -413,7 +978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14546840"/>
+        <c:axId val="1595933520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +1018,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="pl-PL"/>
                   <a:t>log10</a:t>
                 </a:r>
               </a:p>
@@ -519,7 +1084,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2052391031"/>
+        <c:crossAx val="1595946000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -572,6 +1137,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -641,9 +1213,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Zadanie 1 B</a:t>
+              <a:rPr lang="pl-PL"/>
+              <a:t>A</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - p = 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -679,25 +1256,17 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'1B'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NDOF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>równomierne</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -706,57 +1275,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>'1B'!$A$2:$A$13</c:f>
+              <c:f>'1A'!$A$6:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0409999999999999</c:v>
+                  <c:v>1.3220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3220000000000001</c:v>
+                  <c:v>1.613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.613</c:v>
+                  <c:v>1.9079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.613</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>2.2069999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4910000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7849999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0830000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.3820000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1A'!$B$6:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.4536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0049999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-77AB-4967-A889-D381275BB591}"/>
+              <c16:uniqueId val="{00000000-0ED7-4AE1-B849-926D338C6334}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -764,18 +1342,10 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'1B'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>adaptacyjne</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -784,57 +1354,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>'1B'!$B$2:$B$13</c:f>
+              <c:f>'1A'!$D$6:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-1.1739999999999999</c:v>
+                  <c:v>1.3220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.218</c:v>
+                  <c:v>1.591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.256</c:v>
+                  <c:v>1.6719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.292</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.3959999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.4339999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.47</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.5029999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.4730000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.5089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.5429999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.5760000000000001</c:v>
+                  <c:v>1.756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1A'!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.4536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.9670000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-77AB-4967-A889-D381275BB591}"/>
+              <c16:uniqueId val="{00000001-0ED7-4AE1-B849-926D338C6334}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -846,18 +1425,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="877509736"/>
-        <c:axId val="14508824"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="877509736"/>
+        <c:axId val="1093107087"/>
+        <c:axId val="1093100431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1093107087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>log10(NDOF)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -865,8 +1513,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -893,15 +1541,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14508824"/>
+        <c:crossAx val="1093100431"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="14508824"/>
+        <c:axId val="1093100431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,8 +1586,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>log10</a:t>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>log10(H1)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -982,8 +1627,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1007,49 +1658,10 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877509736"/>
+        <c:crossAx val="1093107087"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1058,8 +1670,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1096,6 +1746,2270 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - p = 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>równomierne</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1A'!$A$10:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3820000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1A'!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-1.097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.3530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0009999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC68-49CB-A021-F0ADC17C01B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>adaptacyjne</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1A'!$D$10:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1A'!$E$10:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-1.097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC68-49CB-A021-F0ADC17C01B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1093107087"/>
+        <c:axId val="1093100431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1093107087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>log10(NDOF)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093100431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1093100431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>log10(H1)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093107087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - p = 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>równomierne</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1B'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6259999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1B'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.80859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6179999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8042-4C85-B9BD-474DE8FCF907}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>adaptacyjne</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1B'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1B'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.80859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14369999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8042-4C85-B9BD-474DE8FCF907}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1093107087"/>
+        <c:axId val="1093100431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1093107087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>log10(NDOF)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093100431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1093100431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>log10(H1)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093107087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - p = 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>równomierne</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1B'!$A$6:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2210000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1B'!$B$6:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.59909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.27310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.84119999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15CF-4D5D-B7A4-9FCD989DD8BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>adaptacyjne</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1B'!$D$6:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1360000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1B'!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.59909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.4689999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.4713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15CF-4D5D-B7A4-9FCD989DD8BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1093107087"/>
+        <c:axId val="1093100431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1093107087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>log10(NDOF)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093100431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1093100431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>log10(H1)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093107087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - p = 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>równomierne</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1B'!$A$10:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5709999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1B'!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.40789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.13059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.85460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6950000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FB3-4C5B-ACA3-CA74DF9CA626}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>adaptacyjne</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1B'!$D$10:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4239999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1B'!$E$10:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.40789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2770000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.45989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.95140000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FB3-4C5B-ACA3-CA74DF9CA626}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1093107087"/>
+        <c:axId val="1093100431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1093107087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>log10(NDOF)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093100431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1093100431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>log10(H1)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093107087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -1539,7 +4453,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -2039,7 +4953,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -2538,507 +5452,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Zadanie</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> 2 B adaptp</a:t>
-            </a:r>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2B_adaptp'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NDOF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2B_adaptp'!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.9079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1760000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3380000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.468</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4609999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5529999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.6360000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.73</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7959999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8410000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.8940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.9540000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E1B-46AF-8504-C2BD5065D610}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2B_adaptp'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'2B_adaptp'!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.80859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41439999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2596</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41420000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2586</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.5029999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.40789999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.251</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.4160000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-8.5019999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6E1B-46AF-8504-C2BD5065D610}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1595946000"/>
-        <c:axId val="1595933520"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1595946000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1595933520"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1595933520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>log10</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1595946000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3278,8 +5732,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3306,8 +5880,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3387,11 +5961,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3402,11 +5971,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3418,7 +5982,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3438,9 +6002,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3453,10 +6014,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3496,22 +6057,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3616,8 +6178,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3749,19 +6311,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3775,6 +6338,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3794,7 +6368,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4310,8 +6884,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4338,8 +6912,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4419,11 +6993,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4434,11 +7003,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4450,7 +7014,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4470,9 +7034,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4485,10 +7046,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4528,22 +7089,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4648,8 +7210,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4781,19 +7343,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4807,6 +7370,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4826,8 +7400,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4854,8 +7428,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4935,11 +7509,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4950,11 +7519,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4966,7 +7530,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4986,9 +7550,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5001,10 +7562,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5044,22 +7605,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5164,8 +7726,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5297,19 +7859,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5323,6 +7886,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5342,8 +7916,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5370,8 +7944,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5451,11 +8025,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5466,11 +8035,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5482,7 +8046,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5502,9 +8066,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5517,10 +8078,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5560,22 +8121,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5680,8 +8242,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5813,19 +8375,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5839,6 +8402,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5858,8 +8432,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5886,8 +8460,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5967,11 +8541,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5982,11 +8551,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5998,7 +8562,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6018,6 +8582,2080 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
@@ -6378,26 +11016,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Wykres 6">
+        <xdr:cNvPr id="12" name="Wykres 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A016416-F417-4328-9E16-8AAF4B7156B4}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7E38E6D5-CE25-4A68-A65F-09B15048E8CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006BBA6F-CAFF-48C7-AC6D-31AA46975496}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6415,6 +11050,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Wykres 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F6D297-C0F9-4963-BC33-34354147E86B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Wykres 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A77044-7BC0-4B36-BABC-390BAD644F85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6422,27 +11133,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1">
+        <xdr:cNvPr id="3" name="Wykres 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F627F3B5-DF3C-4BEC-9906-4F9B894A3145}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2147DB32-2D2E-44F0-8F0B-C0076B4BAAC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6451,6 +11164,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB27F2A-AF60-40A1-ADE1-12DF64174AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D69805-E22F-46E4-88A0-F332B512F530}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6910,10 +11699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6922,108 +11711,186 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1.0409999999999999</v>
       </c>
       <c r="B2" s="2">
         <v>-4.5789999999999997E-2</v>
       </c>
+      <c r="D2" s="2">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-4.5789999999999997E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1.3220000000000001</v>
       </c>
       <c r="B3" s="2">
         <v>-0.33760000000000001</v>
       </c>
+      <c r="D3" s="2">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.33760000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.613</v>
       </c>
       <c r="B4" s="2">
         <v>-0.71779999999999999</v>
       </c>
+      <c r="D4" s="2">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.7177</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1.9079999999999999</v>
       </c>
       <c r="B5" s="2">
         <v>-0.98850000000000005</v>
       </c>
+      <c r="D5" s="2">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.98509999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1.3220000000000001</v>
       </c>
       <c r="B6" s="2">
         <v>-0.4536</v>
       </c>
+      <c r="D6" s="2">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.4536</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.613</v>
       </c>
       <c r="B7" s="2">
         <v>-1.1399999999999999</v>
       </c>
+      <c r="D7" s="2">
+        <v>1.591</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-1.1399999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.9079999999999999</v>
       </c>
       <c r="B8" s="2">
         <v>-1.35</v>
       </c>
+      <c r="D8" s="2">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-1.349</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2.2069999999999999</v>
       </c>
       <c r="B9" s="2">
         <v>-2.0049999999999999</v>
       </c>
+      <c r="D9" s="2">
+        <v>1.756</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-1.9670000000000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1.4910000000000001</v>
       </c>
       <c r="B10" s="2">
         <v>-1.097</v>
       </c>
+      <c r="D10" s="2">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-1.097</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1.7849999999999999</v>
       </c>
       <c r="B11" s="2">
         <v>-1.2470000000000001</v>
       </c>
+      <c r="D11" s="2">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-1.2470000000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2.0830000000000002</v>
       </c>
       <c r="B12" s="2">
         <v>-2.3530000000000002</v>
       </c>
+      <c r="D12" s="2">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-2.258</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2.3820000000000001</v>
       </c>
       <c r="B13" s="2">
         <v>-3.0009999999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.881</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-2.569</v>
       </c>
     </row>
   </sheetData>
@@ -7034,10 +11901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD512C1E-B48F-4A56-9EDF-594898BDCE32}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7046,113 +11913,192 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1.0409999999999999</v>
+        <v>1.9079999999999999</v>
       </c>
       <c r="B2" s="2">
-        <v>-1.1739999999999999</v>
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.80859999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1.3220000000000001</v>
+        <v>2.4609999999999999</v>
       </c>
       <c r="B3" s="2">
-        <v>-1.218</v>
+        <v>0.5806</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.58169999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1.613</v>
+        <v>3.0369999999999999</v>
       </c>
       <c r="B4" s="2">
-        <v>-1.256</v>
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.38619999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1.9079999999999999</v>
+        <v>3.6259999999999999</v>
       </c>
       <c r="B5" s="2">
-        <v>-1.292</v>
+        <v>3.6179999999999997E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.665</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.14369999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1.3220000000000001</v>
+        <v>2.4609999999999999</v>
       </c>
       <c r="B6" s="2">
-        <v>-1.3959999999999999</v>
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.59909999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1.613</v>
+        <v>3.0369999999999999</v>
       </c>
       <c r="B7" s="2">
-        <v>-1.4339999999999999</v>
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.601</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.2656</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1.9079999999999999</v>
+        <v>3.6259999999999999</v>
       </c>
       <c r="B8" s="2">
-        <v>-1.47</v>
+        <v>-0.27310000000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-9.4689999999999996E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2.2069999999999999</v>
+        <v>4.2210000000000001</v>
       </c>
       <c r="B9" s="2">
-        <v>-1.5029999999999999</v>
+        <v>-0.84119999999999995</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.1360000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.4713</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1.4910000000000001</v>
+        <v>2.7959999999999998</v>
       </c>
       <c r="B10" s="2">
-        <v>-1.4730000000000001</v>
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.7959999999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.40789999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>1.7849999999999999</v>
+        <v>3.38</v>
       </c>
       <c r="B11" s="2">
-        <v>-1.5089999999999999</v>
+        <v>-0.13059999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.907</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.2770000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2.0830000000000002</v>
+        <v>3.9740000000000002</v>
       </c>
       <c r="B12" s="2">
-        <v>-1.5429999999999999</v>
+        <v>-0.85460000000000003</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.1760000000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.45989999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2.3820000000000001</v>
+        <v>4.5709999999999997</v>
       </c>
       <c r="B13" s="2">
-        <v>-1.5760000000000001</v>
+        <v>-1.6950000000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.4239999999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.95140000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7161,7 +12107,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7285,7 +12231,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7407,7 +12353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC457775-99B0-46D6-BFF7-F87542052B63}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
